--- a/results/metric_df/UDA_metrics.xlsx
+++ b/results/metric_df/UDA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -498,30 +508,36 @@
         <v>2.651420443376771</v>
       </c>
       <c r="D2" t="n">
+        <v>2.651420443376771</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.651420443376771</v>
+      </c>
+      <c r="F2" t="n">
         <v>6.080800000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.499</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>4.77</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -540,30 +556,36 @@
         <v>2.488910808023066</v>
       </c>
       <c r="D3" t="n">
+        <v>2.488910808023066</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.488910808023066</v>
+      </c>
+      <c r="F3" t="n">
         <v>33.50515</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.466</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>5.57</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -582,30 +604,36 @@
         <v>2.568130278967355</v>
       </c>
       <c r="D4" t="n">
+        <v>2.568130278967355</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.568130278967355</v>
+      </c>
+      <c r="F4" t="n">
         <v>28.35099823350998</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.478</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>7.26</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -624,30 +652,36 @@
         <v>2.456060678658576</v>
       </c>
       <c r="D5" t="n">
+        <v>2.456060678658576</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.456060678658576</v>
+      </c>
+      <c r="F5" t="n">
         <v>19.51761428571428</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.461</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -666,30 +700,36 @@
         <v>2.423617038821429</v>
       </c>
       <c r="D6" t="n">
+        <v>2.423617038821429</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.423617038821429</v>
+      </c>
+      <c r="F6" t="n">
         <v>38.74675000000001</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.41</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>8.84</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -708,30 +748,36 @@
         <v>2.398746682240863</v>
       </c>
       <c r="D7" t="n">
+        <v>2.398746682240863</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.398746682240863</v>
+      </c>
+      <c r="F7" t="n">
         <v>25.86341491291986</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.482</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>3.89</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -750,30 +796,36 @@
         <v>2.507435409611315</v>
       </c>
       <c r="D8" t="n">
+        <v>2.507435409611315</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.507435409611315</v>
+      </c>
+      <c r="F8" t="n">
         <v>18.6978126384067</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.362</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>13.43</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -792,30 +844,36 @@
         <v>2.76768229887049</v>
       </c>
       <c r="D9" t="n">
+        <v>2.76768229887049</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.76768229887049</v>
+      </c>
+      <c r="F9" t="n">
         <v>9.626280000000001</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.37</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>9.82</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -834,30 +892,36 @@
         <v>2.637590683923242</v>
       </c>
       <c r="D10" t="n">
+        <v>2.637590683923242</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.637590683923242</v>
+      </c>
+      <c r="F10" t="n">
         <v>9.367666666666665</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.398</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>17.58</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -876,30 +940,36 @@
         <v>2.545281005075958</v>
       </c>
       <c r="D11" t="n">
+        <v>2.545281005075958</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.545281005075958</v>
+      </c>
+      <c r="F11" t="n">
         <v>37.52180000000001</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>0.43</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>9.25</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -918,30 +988,36 @@
         <v>2.205980983080065</v>
       </c>
       <c r="D12" t="n">
+        <v>2.205980983080065</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.205980983080065</v>
+      </c>
+      <c r="F12" t="n">
         <v>19.6036396360364</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>0.428</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>2.87</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>O</t>
         </is>

--- a/results/metric_df/UDA_metrics.xlsx
+++ b/results/metric_df/UDA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,32 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
@@ -504,43 +479,24 @@
       <c r="B2" t="n">
         <v>-0.3397110067993186</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.651420443376771</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.651420443376771</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>2.651420443376771</v>
       </c>
       <c r="F2" t="n">
-        <v>6.080800000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>1.088736086598299</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -552,43 +508,24 @@
       <c r="B3" t="n">
         <v>2.558740702589364</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.488910808023066</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.488910808023066</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>2.488910808023066</v>
       </c>
       <c r="F3" t="n">
-        <v>33.50515</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.466</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>3.817498015261494</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -600,43 +537,24 @@
       <c r="B4" t="n">
         <v>1.785820246752381</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.568130278967355</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.568130278967355</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>2.568130278967355</v>
       </c>
       <c r="F4" t="n">
-        <v>28.35099823350998</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>3.553270689306483</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -648,43 +566,24 @@
       <c r="B5" t="n">
         <v>1.399360018833891</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.456060678658576</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.456060678658576</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>2.456060678658576</v>
       </c>
       <c r="F5" t="n">
-        <v>19.51761428571428</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.461</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.717966878995187</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -696,43 +595,24 @@
       <c r="B6" t="n">
         <v>3.307109925800732</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.423617038821429</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.423617038821429</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>2.423617038821429</v>
       </c>
       <c r="F6" t="n">
-        <v>38.74675000000001</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>4.856184955002936</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -744,283 +624,198 @@
       <c r="B7" t="n">
         <v>1.979050360711627</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.398746682240863</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.398746682240863</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>2.398746682240863</v>
       </c>
       <c r="F7" t="n">
-        <v>25.86341491291986</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.482</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>3.601664838846555</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.547390356594237</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.507435409611315</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.507435409611315</v>
+        <v>10.79235868319528</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>2.507435409611315</v>
+        <v>2.456060678658576</v>
       </c>
       <c r="F8" t="n">
-        <v>18.6978126384067</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.362</v>
-      </c>
-      <c r="H8" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.717966878995187</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.093039474396582</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.76768229887049</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.76768229887049</v>
+        <v>3.547390356594237</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>2.76768229887049</v>
+        <v>2.507435409611315</v>
       </c>
       <c r="F9" t="n">
-        <v>9.626280000000001</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H9" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.929279114573943</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8203558477460665</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.637590683923242</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.637590683923242</v>
+        <v>3.093039474396582</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>2.637590683923242</v>
+        <v>2.76768229887049</v>
       </c>
       <c r="F10" t="n">
-        <v>9.367666666666665</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.398</v>
-      </c>
-      <c r="H10" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.010792135626242</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.3397110067993186</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.545281005075958</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.545281005075958</v>
+        <v>0.8203558477460665</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>2.545281005075958</v>
+        <v>2.637590683923242</v>
       </c>
       <c r="F11" t="n">
-        <v>37.52180000000001</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>1.677232723856071</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Xyl(b1-2)[Man(a1-3)][Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>-0.3397110067993186</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2.545281005075958</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.275145672502249</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Xyl(b1-2)[Man(a1-3)][Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.3397110067993186</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.205980983080065</v>
       </c>
-      <c r="D12" t="n">
-        <v>2.205980983080065</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.205980983080065</v>
-      </c>
-      <c r="F12" t="n">
-        <v>19.6036396360364</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.428</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+      <c r="F13" t="n">
+        <v>3.071189837335363</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
